--- a/biology/Zoologie/Athysanini/Athysanini.xlsx
+++ b/biology/Zoologie/Athysanini/Athysanini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Athysanini est une tribu d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre) de la famille des Cicadellidae.
 Ces insectes communément appelés cicadelles, sont des insectes sauteurs et piqueurs et ils se nourrissent de la sève des végétaux grâce à leur rostre.
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (20 février 2018)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (20 février 2018) :
 Amblytelinus Lindberg, 1954
 Anoplotettix Ribaut, 1942
 Artianus Ribaut, 1942
@@ -600,7 +614,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Edward Payson Van Duzee, « A synoptical arrangement of the genera of the North American Jassidæ, with descriptions of more new species », Transactions of the American Entomological Society, vol. 19,‎ 1892, p. 295-307 (ISSN 0002-8320 et 2162-3139, JSTOR 25076589, lire en ligne)</t>
         </is>
